--- a/cities/Jeddah/Jeddah.xlsx
+++ b/cities/Jeddah/Jeddah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,21 +472,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mohammed Madi</t>
+          <t>Talal Al-Hammouri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alamiah Internet</t>
+          <t>Pointec</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Sales Enginerr</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>madi@alamiah.net</t>
+          <t>Talal@pointec.net</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>134</v>
+        <v>395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohammed Al-Katta</t>
+          <t>Nadeem Ahmed Ali</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bright Links</t>
+          <t>Banawi Industrial Group</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Manager, SAP Applications &amp; IT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,22 +536,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>mohd@brightlinks.com.sa</t>
+          <t>anadeem@banawigroup.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syed Mohammed Azeez ul Hasan</t>
+          <t>Mohammed Madi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rosewood Corniche</t>
+          <t>Alamiah Internet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -571,27 +571,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>syed.azeez@rosewoodhotels.com</t>
+          <t>madi@alamiah.net</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ahmed Bahaziq</t>
+          <t>Mohammed Al-Katta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>General Authority of Civil AViation</t>
+          <t>Bright Links</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Data Center General Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ambahaziq@gaca.gov.sa</t>
+          <t>mohd@brightlinks.com.sa</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>burhan munawar</t>
+          <t>Syed Mohammed Azeez ul Hasan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>binshihon</t>
+          <t>Rosewood Corniche</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>computer network engineer</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,27 +641,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>burhan@bin-shihon.com</t>
+          <t>syed.azeez@rosewoodhotels.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mohamad alhalwani</t>
+          <t>Ahmed Bahaziq</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bin shihon company</t>
+          <t>General Authority of Civil AViation</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>It.Manager</t>
+          <t>Data Center General Manager</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -676,27 +676,27 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>mohammad@bin-shihon.com</t>
+          <t>ambahaziq@gaca.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mahmoud Mudhaffar</t>
+          <t>burhan munawar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Zahid Tractor</t>
+          <t>binshihon</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IT Operations Manager</t>
+          <t>computer network engineer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -711,27 +711,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>mum@zahid.com</t>
+          <t>burhan@bin-shihon.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mohammed Atheeq ur Rahman</t>
+          <t>mohamad alhalwani</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abdul Latif Jameel Company Limited</t>
+          <t>bin shihon company</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>It.Manager</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>rahmanma@alj.com</t>
+          <t>mohammad@bin-shihon.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ahmad al-ghamdi</t>
+          <t>Mahmoud Mudhaffar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>samir group</t>
+          <t>Zahid Tractor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>network engineering</t>
+          <t>IT Operations Manager</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,27 +781,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ahmad.ghamdi@samirgroup.com</t>
+          <t>mum@zahid.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hamad aldash</t>
+          <t>Mohammed Atheeq ur Rahman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>samir-photo</t>
+          <t>Abdul Latif Jameel Company Limited</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Systems engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -816,27 +816,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>hamad.aldash@samirgroup.com</t>
+          <t>rahmanma@alj.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mohammed Abdul Mujeeb</t>
+          <t>ahmad al-ghamdi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Zenith Computers</t>
+          <t>samir group</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>network engineering</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,27 +851,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>mujeeb@zenithest.com</t>
+          <t>ahmad.ghamdi@samirgroup.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dr. Ahmed Al-Abdulwahab</t>
+          <t>hamad aldash</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>King Abdulaziz University</t>
+          <t>samir-photo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vice Dean for Development</t>
+          <t>Systems engineer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -886,32 +886,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>aabdulwhab@kau.edu.sa</t>
+          <t>hamad.aldash@samirgroup.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Naeem Siddiqui</t>
+          <t>Mohammed Abdul Mujeeb</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PC Specialist</t>
+          <t>Zenith Computers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Business Development Manager / IT Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>naeem_siddiqui@yahoo.com</t>
+          <t>mujeeb@zenithest.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ibrahim Itani</t>
+          <t>Dr. Ahmed Al-Abdulwahab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HSE</t>
+          <t>King Abdulaziz University</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>Vice Dean for Development</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -956,27 +956,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ibrahim.itani@el-sewedy.com</t>
+          <t>aabdulwhab@kau.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gerard Jesuthasan</t>
+          <t>Naeem Siddiqui</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DP World ME Jeddah</t>
+          <t>PC Specialist</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Asst IT Manager</t>
+          <t>Business Development Manager / IT Manager</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -991,27 +991,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Gerard.Jesuthasan@dpworld.com</t>
+          <t>naeem_siddiqui@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Misbah Hussain Siddiqui</t>
+          <t>Ibrahim Itani</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SPSNET</t>
+          <t>HSE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Technical Support Manager</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1026,32 +1026,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>misbah.siddiqui@sps.net.sa</t>
+          <t>ibrahim.itani@el-sewedy.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>shakil akhtar</t>
+          <t>Gerard Jesuthasan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>corvit</t>
+          <t>DP World ME Jeddah</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>Asst IT Manager</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,27 +1061,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>syedshakiljan@corvit.com</t>
+          <t>Gerard.Jesuthasan@dpworld.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adeel Awan</t>
+          <t>Misbah Hussain Siddiqui</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HNCC</t>
+          <t>SPSNET</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sales Account Manager</t>
+          <t>Technical Support Manager</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1096,32 +1096,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>adeel@hnccsa.com</t>
+          <t>misbah.siddiqui@sps.net.sa</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Abdulbaseer Mohammed</t>
+          <t>shakil akhtar</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KFSHRCJ</t>
+          <t>corvit</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Systems Administrator</t>
+          <t>country</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1131,27 +1131,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>amohammed@kfshrc.edu.sa</t>
+          <t>syedshakiljan@corvit.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Azam Hashmi</t>
+          <t>Adeel Awan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Apex Systems And Solutions</t>
+          <t>HNCC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sales Engr</t>
+          <t>Sales Account Manager</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1166,32 +1166,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>azam@apexsyssol.com</t>
+          <t>adeel@hnccsa.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Faisal Mohsin</t>
+          <t>Abdulbaseer Mohammed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Apex System &amp; Solution</t>
+          <t>KFSHRCJ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Systems Administrator</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1201,27 +1201,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>faisal@apexsyssol.com</t>
+          <t>amohammed@kfshrc.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mohammed Waheed</t>
+          <t>Azam Hashmi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H.M.Zedan Company</t>
+          <t>Apex Systems And Solutions</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Sales Engr</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1236,27 +1236,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>waheed@zedan.com.sa</t>
+          <t>azam@apexsyssol.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Khawar Hafeez</t>
+          <t>Faisal Mohsin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jeddah Resources</t>
+          <t>Apex System &amp; Solution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1271,27 +1271,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>khawar@jr.com.sa</t>
+          <t>faisal@apexsyssol.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alavi Kutty</t>
+          <t>Mohammed Waheed</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nestle</t>
+          <t>H.M.Zedan Company</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IT/IS support</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1306,27 +1306,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>alavi.kutty@sa.nestle.com</t>
+          <t>waheed@zedan.com.sa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ehab Abu Elamajed</t>
+          <t>Khawar Hafeez</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Global Distribution</t>
+          <t>Jeddah Resources</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IT manager</t>
+          <t>Operations Manager</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1341,27 +1341,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ehab_osman29@hotmail.com</t>
+          <t>khawar@jr.com.sa</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tariq Habib</t>
+          <t>Alavi Kutty</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Kinan International Real Estate Development</t>
+          <t>Nestle</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Senior ICT Director</t>
+          <t>IT/IS support</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1376,27 +1376,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>tahabib@savola.com</t>
+          <t>alavi.kutty@sa.nestle.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ayman Madbouly</t>
+          <t>Ehab Abu Elamajed</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>King Abdul Aziz University</t>
+          <t>Global Distribution</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>IT manager</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1411,27 +1411,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>amadbouly@yahoo.com</t>
+          <t>ehab_osman29@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hassan Dhomiriyah</t>
+          <t>Tariq Habib</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Baghlaf Steel</t>
+          <t>The Kinan International Real Estate Development</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Senior ICT Director</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1446,32 +1446,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>hassan@baghlafsteel.com</t>
+          <t>tahabib@savola.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shaikh Abdul Qader</t>
+          <t>Ayman Madbouly</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAP COMPUTER IT DIVISION</t>
+          <t>King Abdul Aziz University</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SYSTEM ENGINEER</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1481,27 +1481,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MAP@SPS.NET.SA</t>
+          <t>amadbouly@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mohammed Naseeruddin</t>
+          <t>Hassan Dhomiriyah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fast Tech Co Ltd.</t>
+          <t>Baghlaf Steel</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1516,27 +1516,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>naseeruddin99@hotmail.com</t>
+          <t>hassan@baghlafsteel.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Abdulhaq Syed Chisty</t>
+          <t>Shaikh Abdul Qader</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A T E</t>
+          <t>MAP COMPUTER IT DIVISION</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IS Auditor/IT Consultant</t>
+          <t>SYSTEM ENGINEER</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1551,32 +1551,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sahchisty@alliancetechs.com</t>
+          <t>MAP@SPS.NET.SA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>zubair mohammed</t>
+          <t>Mohammed Naseeruddin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>saudi computer solution</t>
+          <t>Fast Tech Co Ltd.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IT infrastructure consultant</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1586,27 +1586,27 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>zubair_mohd@hotmail.com966</t>
+          <t>naseeruddin99@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ayman Elgohary</t>
+          <t>Abdulhaq Syed Chisty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GAZZAZ</t>
+          <t>A T E</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Develepore</t>
+          <t>IS Auditor/IT Consultant</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1621,27 +1621,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>elgoharyayman@hotmail.com</t>
+          <t>sahchisty@alliancetechs.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Syed Mohammed Azeez ul Hasan</t>
+          <t>zubair mohammed</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rosewood Corniche</t>
+          <t>saudi computer solution</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT infrastructure consultant</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1656,27 +1656,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>syed.azeez@rosewoodhotels.com</t>
+          <t>zubair_mohd@hotmail.com966</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mir Firasat Ali</t>
+          <t>Ayman Elgohary</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KIAK</t>
+          <t>GAZZAZ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IT Engineer</t>
+          <t>Develepore</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1691,27 +1691,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>info@kiaksa.com</t>
+          <t>elgoharyayman@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Imran Akram</t>
+          <t>Syed Mohammed Azeez ul Hasan</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ministry of Water &amp; Power</t>
+          <t>Rosewood Corniche</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1726,27 +1726,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>immy7777@hotmail.com</t>
+          <t>syed.azeez@rosewoodhotels.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nazeeh Noman</t>
+          <t>Mir Firasat Ali</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ART - Arab Radio &amp; TV</t>
+          <t>KIAK</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>KSa IT Mamnager</t>
+          <t>IT Engineer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1761,27 +1761,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>nazeeh@nazeeh.com</t>
+          <t>info@kiaksa.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mohammed Fayyzuddin</t>
+          <t>Imran Akram</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ROLACO Trading &amp; Contracting</t>
+          <t>Ministry of Water &amp; Power</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ERP Consultant</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>fayyaz@rolaco.net</t>
+          <t>immy7777@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mirza Baig</t>
+          <t>Nazeeh Noman</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AL-Falak</t>
+          <t>ART - Arab Radio &amp; TV</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>channel sales executive</t>
+          <t>KSa IT Mamnager</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1831,27 +1831,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>mirza@mso.com.sa</t>
+          <t>nazeeh@nazeeh.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adel Qari</t>
+          <t>Mohammed Fayyzuddin</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GACA \ KAIA</t>
+          <t>ROLACO Trading &amp; Contracting</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>ERP Consultant</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1866,27 +1866,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>aqari@kaia.gov.sa</t>
+          <t>fayyaz@rolaco.net</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ibrahim Shareef</t>
+          <t>Mirza Baig</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Samir Photographic Supplies</t>
+          <t>AL-Falak</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Asst IT Manager</t>
+          <t>channel sales executive</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1901,27 +1901,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ibrahim.shareef@samirgroup.com</t>
+          <t>mirza@mso.com.sa</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rajae Al Najjar</t>
+          <t>Adel Qari</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Samir Photographic Supplies.</t>
+          <t>GACA \ KAIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Netwrok Administrator</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1936,27 +1936,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>rajae.alnajjar@samirgroup.com</t>
+          <t>aqari@kaia.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tariq Alnahdi</t>
+          <t>Ibrahim Shareef</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Arabian Cement</t>
+          <t>Samir Photographic Supplies</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Application Manager</t>
+          <t>Asst IT Manager</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1971,27 +1971,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>talnahdi@arabiacement.com</t>
+          <t>ibrahim.shareef@samirgroup.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BASIL ANSARI</t>
+          <t>Rajae Al Najjar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Saudi Import Co. - BANAJA</t>
+          <t>Samir Photographic Supplies.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>P.O.Box: 42</t>
+          <t>Netwrok Administrator</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2006,32 +2006,32 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>bansari@banaja.com</t>
+          <t>rajae.alnajjar@samirgroup.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ebaa dia</t>
+          <t>Tariq Alnahdi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NAI</t>
+          <t>Arabian Cement</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>system administrator</t>
+          <t>Application Manager</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2041,32 +2041,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ebaa@naitruck.com</t>
+          <t>talnahdi@arabiacement.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mohammed Ismail</t>
+          <t>BASIL ANSARI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Abuljadayel Beverages INc.</t>
+          <t>Saudi Import Co. - BANAJA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IT Infrastructure Manager</t>
+          <t>P.O.Box: 42</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2076,27 +2076,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>mismail@ab.com.sa</t>
+          <t>bansari@banaja.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ahmad AlOwfi</t>
+          <t>ebaa dia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SAMACO</t>
+          <t>NAI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>IT Service Desk</t>
+          <t>system administrator</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2111,27 +2111,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>alowfi.ahmad@samaco.com.sa</t>
+          <t>ebaa@naitruck.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sami Al Mekhlafi</t>
+          <t>Mohammed Ismail</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nesma Advanced Tech.</t>
+          <t>Abuljadayel Beverages INc.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Infrastructure Manager</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2146,27 +2146,27 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>saothman@nesma.com</t>
+          <t>mismail@ab.com.sa</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tariq Hijazi</t>
+          <t>Ahmad AlOwfi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Al Sawani Group</t>
+          <t>SAMACO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>National I.T. Manager</t>
+          <t>IT Service Desk</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2181,27 +2181,27 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>t.hijazi@al-sawani.com</t>
+          <t>alowfi.ahmad@samaco.com.sa</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Omar Sinno</t>
+          <t>Sami Al Mekhlafi</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ahmed Abdulwahed Trading Co.</t>
+          <t>Nesma Advanced Tech.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2216,27 +2216,27 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>osinno@abdulwahed-photo.com</t>
+          <t>saothman@nesma.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sameer Quraby</t>
+          <t>Tariq Hijazi</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arabian Company for Systems, Applications &amp; Products in Data Processing Ltd.</t>
+          <t>Al Sawani Group</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>IT-Manager</t>
+          <t>National I.T. Manager</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2251,27 +2251,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>sameerfm@hotmail.com</t>
+          <t>t.hijazi@al-sawani.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mohammad makke</t>
+          <t>Omar Sinno</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SITA</t>
+          <t>Ahmed Abdulwahed Trading Co.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Field Engenieer</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2286,27 +2286,27 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>mohammad.makke@sita.aero</t>
+          <t>osinno@abdulwahed-photo.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Saeed Bawazeer</t>
+          <t>Sameer Quraby</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Al-Talayi</t>
+          <t>Arabian Company for Systems, Applications &amp; Products in Data Processing Ltd.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT-Manager</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2321,27 +2321,27 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>saeedb@altalayi.com</t>
+          <t>sameerfm@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Zakaria Sallam</t>
+          <t>Mohammad makke</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HASOUB</t>
+          <t>SITA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Field Engenieer</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2356,27 +2356,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Zakaria.massoud@hasoub.com</t>
+          <t>mohammad.makke@sita.aero</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Muhammad Tariq</t>
+          <t>Saeed Bawazeer</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SITA</t>
+          <t>Al-Talayi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Site Administrator</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2391,27 +2391,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>muhammad.tariq@sita.aero</t>
+          <t>saeedb@altalayi.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ahmed El Banna</t>
+          <t>Zakaria Sallam</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dr.Soliman Fakeeh Hospital</t>
+          <t>HASOUB</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Deputy IT Director</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2426,27 +2426,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>abanna@drfakeehhospital.com</t>
+          <t>Zakaria.massoud@hasoub.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mostafa Abo Zaid</t>
+          <t>Muhammad Tariq</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gazzaz</t>
+          <t>SITA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Operation Section Head</t>
+          <t>Site Administrator</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2461,27 +2461,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>refaat_ra@yahoo.com</t>
+          <t>muhammad.tariq@sita.aero</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Anas Mosa</t>
+          <t>Ahmed El Banna</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nahdi Medical Comapny</t>
+          <t>Dr.Soliman Fakeeh Hospital</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Deputy IT Director</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2496,27 +2496,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>anas.a.mosa@gmail.com</t>
+          <t>abanna@drfakeehhospital.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Abdulrahman AL-Nahdi</t>
+          <t>Mostafa Abo Zaid</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nahdi Medical Company</t>
+          <t>Gazzaz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Call Center Manager</t>
+          <t>Operation Section Head</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2531,27 +2531,27 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>abdnahdi@alalnahdimc.com</t>
+          <t>refaat_ra@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>khaled alseariy</t>
+          <t>Anas Mosa</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SBG-HQ</t>
+          <t>Nahdi Medical Comapny</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IT Application</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2566,27 +2566,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>kalseariy@sbg.com.sa</t>
+          <t>anas.a.mosa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Arshad Azim</t>
+          <t>Abdulrahman AL-Nahdi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AMS Baeshen &amp; Co.</t>
+          <t>Nahdi Medical Company</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MIS Manager</t>
+          <t>Call Center Manager</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2601,27 +2601,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>aazim@baeshen.com</t>
+          <t>abdnahdi@alalnahdimc.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rex Raymundo</t>
+          <t>khaled alseariy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AMS Baeshen &amp; Co.</t>
+          <t>SBG-HQ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Application</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>rexraymundo@baeshen.com</t>
+          <t>kalseariy@sbg.com.sa</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nail Elden</t>
+          <t>Arshad Azim</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Universal Motors Agencies</t>
+          <t>AMS Baeshen &amp; Co.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Web Consultant</t>
+          <t>MIS Manager</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2671,27 +2671,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>nelden@uma.com.sa</t>
+          <t>aazim@baeshen.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>khalid abbas</t>
+          <t>Rex Raymundo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dr. Soliman Fakeeh Hospital</t>
+          <t>AMS Baeshen &amp; Co.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C.I.O</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2706,27 +2706,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>kabbas@drfakeehhospital.com</t>
+          <t>rexraymundo@baeshen.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mohammad Adnan Ansari</t>
+          <t>Nail Elden</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Almusbah Trading Group</t>
+          <t>Universal Motors Agencies</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Web Consultant</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2741,27 +2741,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>adnan@almusbah.com</t>
+          <t>nelden@uma.com.sa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mohammed Amjad</t>
+          <t>khalid abbas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SIPCO</t>
+          <t>Dr. Soliman Fakeeh Hospital</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Senior BI Developer</t>
+          <t>C.I.O</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2776,27 +2776,27 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ma@sipco.net.sa</t>
+          <t>kabbas@drfakeehhospital.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Basharat Khan</t>
+          <t>Mohammad Adnan Ansari</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RUSD International Holding Group</t>
+          <t>Almusbah Trading Group</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IT Projects Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2811,27 +2811,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>basharat@rusdonline.com</t>
+          <t>adnan@almusbah.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ibrahim Al Amshan</t>
+          <t>Mohammed Amjad</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Banawi Industrial Group</t>
+          <t>SIPCO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>System Engineer</t>
+          <t>Senior BI Developer</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2846,27 +2846,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>iamshan@banawigroup.com</t>
+          <t>ma@sipco.net.sa</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jawed Akhtar</t>
+          <t>Basharat Khan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Radwa Food Production Co. Ltd.</t>
+          <t>RUSD International Holding Group</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>I.T. Manager</t>
+          <t>IT Projects Manager</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>jawed@aaltaher.com</t>
+          <t>basharat@rusdonline.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Yousef Zagzoug</t>
+          <t>Ibrahim Al Amshan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SIPCO</t>
+          <t>Banawi Industrial Group</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ITIM</t>
+          <t>System Engineer</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2916,27 +2916,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>yz@sipco.net.sa</t>
+          <t>iamshan@banawigroup.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lareef Lafir</t>
+          <t>Jawed Akhtar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DP World, Jeddah</t>
+          <t>Radwa Food Production Co. Ltd.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>I.T. Manager</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2951,27 +2951,27 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>lareef.lafir@dpworld.com</t>
+          <t>jawed@aaltaher.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mohammed Abdul Qader</t>
+          <t>Yousef Zagzoug</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Shift</t>
+          <t>SIPCO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Corporate Sector Manager</t>
+          <t>ITIM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2986,22 +2986,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>m.abdulqader@shift-ksa.com</t>
+          <t>yz@sipco.net.sa</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Housam Ibrahim-Basha</t>
+          <t>Lareef Lafir</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nesma Holding Co. Ltd.</t>
+          <t>DP World, Jeddah</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3021,27 +3021,27 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>housam@nesma.com</t>
+          <t>lareef.lafir@dpworld.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Samer Daghestani</t>
+          <t>Mohammed Abdul Qader</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SHIFT</t>
+          <t>Shift</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sales &amp; Marketing Manager</t>
+          <t>Corporate Sector Manager</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3056,32 +3056,32 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>samer@shift-ksa.com</t>
+          <t>m.abdulqader@shift-ksa.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ADEL ABED</t>
+          <t>Housam Ibrahim-Basha</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ECHOSERVE</t>
+          <t>Nesma Holding Co. Ltd.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SALES MANAGER</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3091,27 +3091,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>adel@echoserve.com.sa</t>
+          <t>housam@nesma.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Imran Javed Dar</t>
+          <t>Samer Daghestani</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jeraisy Computers</t>
+          <t>SHIFT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Sales &amp; Marketing Manager</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3126,32 +3126,32 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>idar@jeraisy.com</t>
+          <t>samer@shift-ksa.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ashraf mohamed</t>
+          <t>ADEL ABED</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>gazzaz</t>
+          <t>ECHOSERVE</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Software Section Head</t>
+          <t>SALES MANAGER</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>info@gazzaz.com.sa</t>
+          <t>adel@echoserve.com.sa</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Aiman Albardawill</t>
+          <t>Imran Javed Dar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GEMS</t>
+          <t>Jeraisy Computers</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3196,27 +3196,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>bardawill@icp-utileco.com</t>
+          <t>idar@jeraisy.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fawad Hussain</t>
+          <t>ashraf mohamed</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JWT</t>
+          <t>gazzaz</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>IT Manager KSA</t>
+          <t>Software Section Head</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3231,22 +3231,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>fawad.hussain@jwt.com</t>
+          <t>info@gazzaz.com.sa</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hassan Sokkery</t>
+          <t>Aiman Albardawill</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Allied Cooperative Insurance Group</t>
+          <t>GEMS</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3266,27 +3266,27 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>hassan.sokkery@acig.com.sa</t>
+          <t>bardawill@icp-utileco.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mohammad Nsouli</t>
+          <t>Fawad Hussain</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Patchi</t>
+          <t>JWT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>IT Manager &amp; Business Analyst</t>
+          <t>IT Manager KSA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3301,22 +3301,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>mnsouli@patchi-sa.com</t>
+          <t>fawad.hussain@jwt.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Khaled Al-Ahmary</t>
+          <t>Hassan Sokkery</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Avon Beauty Arabia LLC</t>
+          <t>Allied Cooperative Insurance Group</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3336,32 +3336,32 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>kahmary@gmail.com</t>
+          <t>hassan.sokkery@acig.com.sa</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SALEEM KARAR</t>
+          <t>Mohammad Nsouli</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ALKINDY GROUP</t>
+          <t>Patchi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Manager &amp; Business Analyst</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3371,27 +3371,27 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>selimo79@gmail.com</t>
+          <t>mnsouli@patchi-sa.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sra Al-barakaty</t>
+          <t>Khaled Al-Ahmary</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Effat Univarsity</t>
+          <t>Avon Beauty Arabia LLC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3406,32 +3406,32 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>salbarakaty@effat.edu.sa</t>
+          <t>kahmary@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IBRAHIM ALREQEB</t>
+          <t>SALEEM KARAR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ARAMEX INTERNATIONAL</t>
+          <t>ALKINDY GROUP</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>IT Team Leader</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3441,27 +3441,27 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>IBRAHIM.ALREQEB@ARAMEX.COM</t>
+          <t>selimo79@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Waseim El-Said</t>
+          <t>Sra Al-barakaty</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SETE</t>
+          <t>Effat Univarsity</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ICT Manager</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3476,27 +3476,27 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>wasiem@setejed.com.sa</t>
+          <t>salbarakaty@effat.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Feras Moslemane</t>
+          <t>IBRAHIM ALREQEB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BTAT</t>
+          <t>ARAMEX INTERNATIONAL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>IT Operation Manager</t>
+          <t>IT Team Leader</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3511,27 +3511,27 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>feras.moslemane@bt-at.com</t>
+          <t>IBRAHIM.ALREQEB@ARAMEX.COM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mohammed Al-Saggaf</t>
+          <t>Waseim El-Said</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Al-Muhaidib Contracting</t>
+          <t>SETE</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>ICT Manager</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3546,32 +3546,32 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>malsaggaf@muhaidibco.com</t>
+          <t>wasiem@setejed.com.sa</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ahmed Almasri</t>
+          <t>Feras Moslemane</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NGHA</t>
+          <t>BTAT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>System Admin</t>
+          <t>IT Operation Manager</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3581,27 +3581,27 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>masriaa@ngha.med.sa</t>
+          <t>feras.moslemane@bt-at.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Adel Mohammed</t>
+          <t>Mohammed Al-Saggaf</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tatwer International</t>
+          <t>Al-Muhaidib Contracting</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>sr. .Net Developer</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3616,27 +3616,27 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>adel2004@gmail.com</t>
+          <t>malsaggaf@muhaidibco.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tariq Humaid</t>
+          <t>Ahmed Almasri</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Computer Support House</t>
+          <t>NGHA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Technology specialist</t>
+          <t>System Admin</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3651,27 +3651,27 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>tariq@csh.com.sa</t>
+          <t>masriaa@ngha.med.sa</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Samer Al Itouni</t>
+          <t>Adel Mohammed</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ACIG</t>
+          <t>Tatwer International</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Technical Supervisor</t>
+          <t>sr. .Net Developer</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3686,32 +3686,32 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>im@acig.com.sa</t>
+          <t>adel2004@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mohammed Alhddad</t>
+          <t>Tariq Humaid</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mobily</t>
+          <t>Computer Support House</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Network Eng.</t>
+          <t>Technology specialist</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3721,27 +3721,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>m.alhadad@mobily.com.sa</t>
+          <t>tariq@csh.com.sa</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Yassin Yassin</t>
+          <t>Samer Al Itouni</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>IDIS</t>
+          <t>ACIG</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Technical Supervisor</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3756,27 +3756,27 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>yassin@idis.com.sa</t>
+          <t>im@acig.com.sa</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Naser Dyab</t>
+          <t>Mohammed Alhddad</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>POINTEC</t>
+          <t>Mobily</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Network Eng.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>naser@pointec.net</t>
+          <t>m.alhadad@mobily.com.sa</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nabila Ahmed</t>
+          <t>Yassin Yassin</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Effat University</t>
+          <t>IDIS</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Technical Support Assistant</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3826,27 +3826,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>nahmed@effatuniversity.edu.sa</t>
+          <t>yassin@idis.com.sa</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Murhaf AlKazemi</t>
+          <t>Naser Dyab</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DataOcean</t>
+          <t>POINTEC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Executive Manager</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3861,27 +3861,27 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>murhafali@gmail.com</t>
+          <t>naser@pointec.net</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Abdulkadir Ali</t>
+          <t>Nabila Ahmed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Computer Support House</t>
+          <t>Effat University</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Technical Support Assistant</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3896,27 +3896,27 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>aqadir@csh.com.sa</t>
+          <t>nahmed@effatuniversity.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hamzeh Kourbeh</t>
+          <t>Murhaf AlKazemi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BT- Applied Technology</t>
+          <t>DataOcean</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Group IT Manager</t>
+          <t>Executive Manager</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3931,27 +3931,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>hkourbeh@btat.com</t>
+          <t>murhafali@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ibrahim Sarieddine</t>
+          <t>Abdulkadir Ali</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Zuhair Fayez Partnership-Information Technologhy</t>
+          <t>Computer Support House</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sales Executive</t>
+          <t>Business Development Executive</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3966,27 +3966,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>isarieddine@zfp.com</t>
+          <t>aqadir@csh.com.sa</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Samy Elkhatib</t>
+          <t>Hamzeh Kourbeh</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>IKK Group</t>
+          <t>BT- Applied Technology</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CIO</t>
+          <t>Group IT Manager</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4001,27 +4001,27 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>elkhatib@ikkgroup.com</t>
+          <t>hkourbeh@btat.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Abdullateef Quadri</t>
+          <t>Ibrahim Sarieddine</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Food Manufacturers Co. ULKER</t>
+          <t>Zuhair Fayez Partnership-Information Technologhy</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>IT Operations Manager</t>
+          <t>Sales Executive</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4036,27 +4036,27 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>abdullateef@fmculker.com.sa</t>
+          <t>isarieddine@zfp.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Abdullah Al-Attas</t>
+          <t>Samy Elkhatib</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SAMACO</t>
+          <t>IKK Group</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4071,32 +4071,32 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>apodi@hotmail.com</t>
+          <t>elkhatib@ikkgroup.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>abdulhameed mahmoud</t>
+          <t>Abdullateef Quadri</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>college of technology</t>
+          <t>Food Manufacturers Co. ULKER</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>analyst &amp; app Developer</t>
+          <t>IT Operations Manager</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4106,27 +4106,27 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>abmahmoud@yahoo.com</t>
+          <t>abdullateef@fmculker.com.sa</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reda Khalaf</t>
+          <t>Abdullah Al-Attas</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Effat University</t>
+          <t>SAMACO</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Technical Support Coordinator</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4141,27 +4141,27 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>redakhalaf@hotmail.com</t>
+          <t>apodi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Manal Khayyat</t>
+          <t>abdulhameed mahmoud</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Effat University</t>
+          <t>college of technology</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Banner Support</t>
+          <t>analyst &amp; app Developer</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4176,32 +4176,32 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>mkhayat@effatuniversity.edu.sa</t>
+          <t>abmahmoud@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>akram aldaboly</t>
+          <t>Reda Khalaf</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CPC</t>
+          <t>Effat University</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>It Manager</t>
+          <t>Technical Support Coordinator</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4211,17 +4211,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>aldaboly@gmail.com</t>
+          <t>redakhalaf@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Wafaa Asiree</t>
+          <t>Manal Khayyat</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>IT Support</t>
+          <t>Banner Support</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4246,27 +4246,27 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>wasiree@effatuniversity.edu.sa</t>
+          <t>mkhayat@effatuniversity.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hassan Salah</t>
+          <t>akram aldaboly</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Abdul Latif Jameel Co</t>
+          <t>CPC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>It Manager</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4281,32 +4281,32 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>eldeenhm@alj.com</t>
+          <t>aldaboly@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adel el arabi</t>
+          <t>Wafaa Asiree</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>micom</t>
+          <t>Effat University</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>development manager</t>
+          <t>IT Support</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4316,27 +4316,27 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>adelaraby@yahoo.com</t>
+          <t>wasiree@effatuniversity.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ameen Al-Buni</t>
+          <t>Hassan Salah</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Millennium Institute of Technology &amp; Management (MITM)</t>
+          <t>Abdul Latif Jameel Co</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Short Courses Department Coordinator</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4351,27 +4351,27 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>a_albuni@hotmail.com</t>
+          <t>eldeenhm@alj.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Abdul Aziz Ali Khan</t>
+          <t>adel el arabi</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Shabakah Net</t>
+          <t>micom</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>COrproate Account Manager</t>
+          <t>development manager</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4386,32 +4386,32 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>abdulazizk@shabakah.com.sa</t>
+          <t>adelaraby@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MOHAMMED JAVEED KHAN</t>
+          <t>Ameen Al-Buni</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ALFOZAN GROUP</t>
+          <t>Millennium Institute of Technology &amp; Management (MITM)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PURCHASING COORDINATOR</t>
+          <t>Short Courses Department Coordinator</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4421,32 +4421,32 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>alfozan@alfozan.com</t>
+          <t>a_albuni@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MOHAMMED ALAMMARI</t>
+          <t>Abdul Aziz Ali Khan</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Saudi Electricity Co.</t>
+          <t>Shabakah Net</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>COrproate Account Manager</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4456,27 +4456,27 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Malammari@se.com.sa</t>
+          <t>abdulazizk@shabakah.com.sa</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Alaa El-Hindi</t>
+          <t>MOHAMMED JAVEED KHAN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Arabian Soil Contractors</t>
+          <t>ALFOZAN GROUP</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>PURCHASING COORDINATOR</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4491,27 +4491,27 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>alaa_hindi@hotmail.com</t>
+          <t>alfozan@alfozan.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Zayed Hossain</t>
+          <t>MOHAMMED ALAMMARI</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Al Azizia Panda United Inc</t>
+          <t>Saudi Electricity Co.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Supervisor Store Support</t>
+          <t>Operation Manager</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4526,27 +4526,27 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>jhossain@panda.com.sa</t>
+          <t>Malammari@se.com.sa</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Zeya Anwar</t>
+          <t>Alaa El-Hindi</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Abdul Latif Jameel Co Ltd</t>
+          <t>Arabian Soil Contractors</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4561,27 +4561,27 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>anwarz@alj.com</t>
+          <t>alaa_hindi@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Amro Fakahani</t>
+          <t>Zayed Hossain</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Saudi Import Co. - BANAJA</t>
+          <t>Al Azizia Panda United Inc</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>Supervisor Store Support</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4596,32 +4596,32 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>afakahani@banaja.com</t>
+          <t>jhossain@panda.com.sa</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MOHAMMAD ANAS FEHAIL</t>
+          <t>Zeya Anwar</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>KNOWLEDGE COMPUTER</t>
+          <t>Abdul Latif Jameel Co Ltd</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PROJECT MANAGER</t>
+          <t>General Manager</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>JEDDAH</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4631,27 +4631,27 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>ANAS_FEHAIL@HOTMAIL.COM</t>
+          <t>anwarz@alj.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Adil Mohammed</t>
+          <t>Amro Fakahani</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>British Council</t>
+          <t>Saudi Import Co. - BANAJA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>IT manager</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4666,27 +4666,27 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>adil.mohammed@sa.britishcouncil.org</t>
+          <t>afakahani@banaja.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ahsan Kamal</t>
+          <t>MOHAMMAD ANAS FEHAIL</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bit Haze</t>
+          <t>KNOWLEDGE COMPUTER</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>PROJECT MANAGER</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4701,27 +4701,27 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ahsan@bithaze.net</t>
+          <t>ANAS_FEHAIL@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Talal Bahafzallah</t>
+          <t>Adil Mohammed</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Emaxer</t>
+          <t>British Council</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>IT manager</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4736,32 +4736,32 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>talal@emaxer.com</t>
+          <t>adil.mohammed@sa.britishcouncil.org</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ahmed ali</t>
+          <t>Ahsan Kamal</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>sharqawi</t>
+          <t>Bit Haze</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4771,27 +4771,27 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>ahmed.ali@Sharqawi-co.com</t>
+          <t>ahsan@bithaze.net</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ahmed Abu Sharkh</t>
+          <t>Talal Bahafzallah</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Computer Support House</t>
+          <t>Emaxer</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sales Account Manager</t>
+          <t>General Manager</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4806,27 +4806,27 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>ahmedsh@csh.com.sa</t>
+          <t>talal@emaxer.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ajay Bhatt</t>
+          <t>ahmed ali</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Saudi Arabian Glass Co. Ltd.</t>
+          <t>sharqawi</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>it</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4841,32 +4841,32 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>ajay@sagco.net</t>
+          <t>ahmed.ali@Sharqawi-co.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AYMAN HAMED</t>
+          <t>Ahmed Abu Sharkh</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>AL ANSAR MEDICAL GROUP</t>
+          <t>Computer Support House</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>IT MANAGER</t>
+          <t>Sales Account Manager</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4876,27 +4876,27 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>aymanhamed_s@hotmail.com</t>
+          <t>ahmedsh@csh.com.sa</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ahmed Fadal</t>
+          <t>Ajay Bhatt</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NCB</t>
+          <t>Saudi Arabian Glass Co. Ltd.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VP, NOvA Program Director</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4911,27 +4911,27 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>a.fadal@alahli.com</t>
+          <t>ajay@sagco.net</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mustafa Rampurawala</t>
+          <t>AYMAN HAMED</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Abdul Latif Jameel Co. Ltd</t>
+          <t>AL ANSAR MEDICAL GROUP</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>IT MANAGER</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4946,27 +4946,27 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>rampurawalami@alj.com</t>
+          <t>aymanhamed_s@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Balaji Hiriyur Ranganatha</t>
+          <t>Ahmed Fadal</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ALJ Limited</t>
+          <t>NCB</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>VP, NOvA Program Director</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4981,22 +4981,22 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>ranganathabh@alj.com</t>
+          <t>a.fadal@alahli.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Muhammad Ali Jan Alam</t>
+          <t>Mustafa Rampurawala</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Al-Alamiah Institute</t>
+          <t>Abdul Latif Jameel Co. Ltd</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5016,22 +5016,22 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>muhammed.ali@alamiah.edu.sa</t>
+          <t>rampurawalami@alj.com</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>mohammed abu jumaa</t>
+          <t>Balaji Hiriyur Ranganatha</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ACS</t>
+          <t>ALJ Limited</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5051,27 +5051,27 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>mjumaa@acs.com.sa</t>
+          <t>ranganathabh@alj.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Abdullah Habadi</t>
+          <t>Muhammad Ali Jan Alam</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Saudi Industrial Services Co.</t>
+          <t>Al-Alamiah Institute</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5086,27 +5086,27 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>a.habadi@sisco.com.sa</t>
+          <t>muhammed.ali@alamiah.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mohyiddeen Othman</t>
+          <t>mohammed abu jumaa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Mandurah Consulting</t>
+          <t>ACS</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5121,27 +5121,27 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>mohi@mcgsite.com</t>
+          <t>mjumaa@acs.com.sa</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ismail Siam</t>
+          <t>Abdullah Habadi</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>IIT Co</t>
+          <t>Saudi Industrial Services Co.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>IT Project Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5156,32 +5156,32 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ismailsiam@gmail.com</t>
+          <t>a.habadi@sisco.com.sa</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>mazen alasmari</t>
+          <t>Mohyiddeen Othman</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>amant jeddah</t>
+          <t>Mandurah Consulting</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>it manager</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5191,27 +5191,27 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>mazen8as@hotmail.com</t>
+          <t>mohi@mcgsite.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ehab Banjar</t>
+          <t>Ismail Siam</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Tawzea Company</t>
+          <t>IIT Co</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ICT Manager</t>
+          <t>IT Project Manager</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5226,27 +5226,27 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>ebanjar@tawzea.com</t>
+          <t>ismailsiam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mohammad Syed</t>
+          <t>mazen alasmari</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Solex Plus</t>
+          <t>amant jeddah</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Team Leader</t>
+          <t>it manager</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5261,27 +5261,27 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>msnurhaq@solexplus.net</t>
+          <t>mazen8as@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bachar Younis</t>
+          <t>Ehab Banjar</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Juffali JAMED</t>
+          <t>Tawzea Company</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>IT Administrator</t>
+          <t>ICT Manager</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5296,27 +5296,27 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Ybashar@btygroup.org</t>
+          <t>ebanjar@tawzea.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Elmazri Bahareldien</t>
+          <t>Mohammad Syed</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>KPMG Al Fozan &amp; Al Sadhan</t>
+          <t>Solex Plus</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>System Engineer</t>
+          <t>Team Leader</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5331,32 +5331,32 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>mbahareldien@kpmg.com</t>
+          <t>msnurhaq@solexplus.net</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ashraf mohamed</t>
+          <t>Bachar Younis</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>gazzaz</t>
+          <t>Juffali JAMED</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>software head section</t>
+          <t>IT Administrator</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5366,27 +5366,27 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ashraf_wageeh@yahoo.com</t>
+          <t>Ybashar@btygroup.org</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mohammed Abdus Samad</t>
+          <t>Elmazri Bahareldien</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Alhamrani Group</t>
+          <t>KPMG Al Fozan &amp; Al Sadhan</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ERP Manager</t>
+          <t>System Engineer</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5401,27 +5401,27 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>mquadri@alhamrani.net</t>
+          <t>mbahareldien@kpmg.com</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Faisal Hameed</t>
+          <t>ashraf mohamed</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Alhamrani Group</t>
+          <t>gazzaz</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Application Manager</t>
+          <t>software head section</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5436,27 +5436,27 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>fhameed@alhamrani.net</t>
+          <t>ashraf_wageeh@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nazih Dannaoui</t>
+          <t>Mohammed Abdus Samad</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Alhamrani Group</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>TAM</t>
+          <t>ERP Manager</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5471,27 +5471,27 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>nazihd@microsoft.com</t>
+          <t>mquadri@alhamrani.net</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Amjad Al-Lobadi</t>
+          <t>Faisal Hameed</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>STC</t>
+          <t>Alhamrani Group</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>System Engenier</t>
+          <t>Application Manager</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5506,27 +5506,27 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>aallobadi@stc.com.sa</t>
+          <t>fhameed@alhamrani.net</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Adnan Ghufran</t>
+          <t>Nazih Dannaoui</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>JCCS</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>System Administrator</t>
+          <t>TAM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5541,32 +5541,32 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>adnan.shiekh@sita.aero</t>
+          <t>nazihd@microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hany mansy</t>
+          <t>Amjad Al-Lobadi</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>alanjal international schools</t>
+          <t>STC</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>System Engenier</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>jeddah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5576,27 +5576,27 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>hanigh_2000@hotmail.com</t>
+          <t>aallobadi@stc.com.sa</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>waleed rashed</t>
+          <t>Adnan Ghufran</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Gazzaz</t>
+          <t>JCCS</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>System Administrator</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5611,27 +5611,27 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>wrashed@gazzaz.com.sa</t>
+          <t>adnan.shiekh@sita.aero</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mohammed Al_katta</t>
+          <t>hany mansy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Brightlinks</t>
+          <t>alanjal international schools</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5646,27 +5646,27 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>mohd@brightlinks.com.sa</t>
+          <t>hanigh_2000@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Anis Elsawy</t>
+          <t>waleed rashed</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ebsar Foundation</t>
+          <t>Gazzaz</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>It &amp; Training Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5681,27 +5681,27 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>anis_mansour@ebsar.org</t>
+          <t>wrashed@gazzaz.com.sa</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nejadd Muhammad</t>
+          <t>Mohammed Al_katta</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Hardware Solutions Builders / HASOUB</t>
+          <t>Brightlinks</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Products Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5716,27 +5716,27 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>nejad.muhammad@hasoub.com</t>
+          <t>mohd@brightlinks.com.sa</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Vaquar Quadri</t>
+          <t>Anis Elsawy</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TCIC</t>
+          <t>Ebsar Foundation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>It &amp; Training Manager</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5751,27 +5751,27 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>vaquar2006@hotmail.com</t>
+          <t>anis_mansour@ebsar.org</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Kassem Diab</t>
+          <t>Nejadd Muhammad</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SPSNET</t>
+          <t>Hardware Solutions Builders / HASOUB</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Web Manager</t>
+          <t>Products Manager</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5786,27 +5786,27 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>kassem.diab@sps.net.sa</t>
+          <t>nejad.muhammad@hasoub.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Irfan Shaikh</t>
+          <t>Vaquar Quadri</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>JISH</t>
+          <t>TCIC</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Network Engineer</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5821,27 +5821,27 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>sirfan@jish.com.sa</t>
+          <t>vaquar2006@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Samy Elkhatib</t>
+          <t>Kassem Diab</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>IKK Group</t>
+          <t>SPSNET</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>CIO</t>
+          <t>Web Manager</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5856,27 +5856,27 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>samy.elkhatib@ikkgroup.com</t>
+          <t>kassem.diab@sps.net.sa</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mohammed Rafeeq</t>
+          <t>Irfan Shaikh</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>TCIC</t>
+          <t>JISH</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5891,27 +5891,27 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>rafeeq4rhm@gmail.com</t>
+          <t>sirfan@jish.com.sa</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ayla Anis</t>
+          <t>Samy Elkhatib</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Effat University</t>
+          <t>IKK Group</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Business Application Analyst</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5926,27 +5926,27 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>aanis@effatcollege.edu.sa</t>
+          <t>samy.elkhatib@ikkgroup.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Maram Shalabi</t>
+          <t>Mohammed Rafeeq</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Effat University</t>
+          <t>TCIC</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Network Administrator</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5961,27 +5961,27 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>mshalaby@effatuniversity.edu.sa</t>
+          <t>rafeeq4rhm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mohammed Asif</t>
+          <t>Ayla Anis</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>New Product Ind. Co Ltd.</t>
+          <t>Effat University</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>IT In Charge</t>
+          <t>Business Application Analyst</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5996,27 +5996,27 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>asif@neproplast.com</t>
+          <t>aanis@effatcollege.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Rafeeque M.K.</t>
+          <t>Maram Shalabi</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Al Muhaidib Contracting Co.</t>
+          <t>Effat University</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Head - IT Service Delivery</t>
+          <t>Network Administrator</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6031,27 +6031,27 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>rafeeque@muhaidibco.com</t>
+          <t>mshalaby@effatuniversity.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ahmed Abdel-Aziz</t>
+          <t>Mohammed Asif</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ILS</t>
+          <t>New Product Ind. Co Ltd.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Solutions and Development Manager</t>
+          <t>IT In Charge</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6066,32 +6066,32 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>dev@ils.com.sa</t>
+          <t>asif@neproplast.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tarek Seada</t>
+          <t>Rafeeque M.K.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Abdul Latif Jameel Co.</t>
+          <t>Al Muhaidib Contracting Co.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>GM - Program Manager Office</t>
+          <t>Head - IT Service Delivery</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Jeddah 21411</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6101,32 +6101,32 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>seadatm@alj.com</t>
+          <t>rafeeque@muhaidibco.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Mahmoud Ali</t>
+          <t>Ahmed Abdel-Aziz</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>King Abdulaziz Medical City</t>
+          <t>ILS</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Technical Support &amp; Operations Manager</t>
+          <t>Solutions and Development Manager</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jeddah 21423</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6136,32 +6136,32 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>alima@ngha.med.sa</t>
+          <t>dev@ils.com.sa</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sami Alborbar</t>
+          <t>Tarek Seada</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Altawfeek Financial Groups</t>
+          <t>Abdul Latif Jameel Co.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>IT Infrastructure Manager</t>
+          <t>GM - Program Manager Office</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jeddah 21514</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6171,32 +6171,32 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>sami@altawfeek.com</t>
+          <t>seadatm@alj.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Imad Elkassih</t>
+          <t>Mahmoud Ali</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>King Abdulaziz Medical City</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ERP &amp; IT Manager</t>
+          <t>Technical Support &amp; Operations Manager</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jeddah 21521</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6206,42 +6206,217 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>imad@aicsteel.com</t>
+          <t>alima@ngha.med.sa</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
+        <v>497</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sami Alborbar</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Altawfeek Financial Groups</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>IT Infrastructure Manager</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>sami@altawfeek.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>433</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Imad Elkassih</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>ERP &amp; IT Manager</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>imad@aicsteel.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
         <v>455</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>SAAJID PARIYARATH</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>MS FAKHRY</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>IT PROJECT MANAGER</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>JEDDAH-21411</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>PSAAJID@YAHOO.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>341</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>quamar iqbal</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Softland Computer</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Sales Repersentive</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>quamariqbal@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>422</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Mohammad Al-Massimi</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Abdullah Hashim CO.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Network Administrator</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>massimi@ahcl.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>493</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Amin Oudeh</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>T.M.E</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>I.T Manager</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>aminaudeh@omniaworld.net</t>
         </is>
       </c>
     </row>
